--- a/assets/preos.xlsx
+++ b/assets/preos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4ahme\Desktop\eoscalculator-main\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\4ahme\Desktop\eoscalculator\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DB25EC5-C369-44AA-8547-14B74CA34A85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4659176E-DB5E-4BCE-AF16-B0E2ACCCE675}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="538" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3075,7 +3075,7 @@
   <dimension ref="A1:L40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3118,13 +3118,13 @@
         <v>27</v>
       </c>
       <c r="B4" s="70">
-        <v>190.6</v>
+        <v>222</v>
       </c>
       <c r="C4" s="70">
-        <v>4.6040000000000001</v>
+        <v>222</v>
       </c>
       <c r="D4" s="70">
-        <v>1.0999999999999999E-2</v>
+        <v>22</v>
       </c>
       <c r="F4" s="94"/>
     </row>
@@ -3159,7 +3159,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="45">
-        <v>111.40684117605109</v>
+        <v>22</v>
       </c>
       <c r="C7" s="104" t="s">
         <v>33</v>
@@ -3175,7 +3175,7 @@
       </c>
       <c r="H7" s="108">
         <f>TK/Tc</f>
-        <v>0.58450598728253456</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="I7" s="92" t="s">
         <v>37</v>
@@ -3187,7 +3187,7 @@
         <v>38</v>
       </c>
       <c r="B8" s="46">
-        <v>0.1</v>
+        <v>22</v>
       </c>
       <c r="C8" s="110"/>
       <c r="D8" s="111" t="s">
@@ -3201,11 +3201,11 @@
       </c>
       <c r="H8" s="114">
         <f>P/Pc</f>
-        <v>2.1720243266724587E-2</v>
+        <v>9.90990990990991E-2</v>
       </c>
       <c r="I8" s="95">
         <f>0.4572355289*(Tc*_R)^2*alpha/Pc</f>
-        <v>297527.39300120424</v>
+        <v>29656730.773372982</v>
       </c>
       <c r="J8" s="97"/>
     </row>
@@ -3214,24 +3214,24 @@
         <v>42</v>
       </c>
       <c r="B9" s="116"/>
-      <c r="C9" s="117">
+      <c r="C9" s="117" t="e">
         <f>E26-a2_/3</f>
-        <v>0.9673637722131988</v>
-      </c>
-      <c r="D9" s="118">
+        <v>#NUM!</v>
+      </c>
+      <c r="D9" s="118" t="e">
         <f>Z*R_*TK/P</f>
-        <v>8960.5848075700997</v>
-      </c>
-      <c r="E9" s="119">
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="119" t="e">
         <f>P*EXP(Z-1-LN(Z-B)-A/B/2.8284*LN((Z+2.4142*B)/(Z-0.4142*B)))</f>
-        <v>9.6831063764224581E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G9" s="120" t="s">
         <v>43</v>
       </c>
       <c r="H9" s="114">
         <f>0.37464+1.54226*omega-0.26992*omega^2</f>
-        <v>0.39157219967999995</v>
+        <v>-96.336919999999992</v>
       </c>
       <c r="I9" s="92" t="s">
         <v>44</v>
@@ -3243,13 +3243,13 @@
         <v>45</v>
       </c>
       <c r="B10" s="122"/>
-      <c r="C10" s="94">
+      <c r="C10" s="94" t="e">
         <f>F26-a2_/3</f>
-        <v>2.6107975804786354E-2</v>
-      </c>
-      <c r="D10" s="123">
+        <v>#NUM!</v>
+      </c>
+      <c r="D10" s="123" t="e">
         <f>Z*R_*TK/P</f>
-        <v>241.83532407622283</v>
+        <v>#NUM!</v>
       </c>
       <c r="E10" s="119"/>
       <c r="G10" s="124" t="s">
@@ -3257,28 +3257,28 @@
       </c>
       <c r="H10" s="125">
         <f>(1+kappa*(1-SQRT(Tr)))^2</f>
-        <v>1.1929085729552695</v>
+        <v>4226.3064113131841</v>
       </c>
       <c r="I10" s="95">
         <f>0.0777960739*R_*Tc/Pc</f>
-        <v>26.778110950406653</v>
+        <v>0.64683327815148084</v>
       </c>
       <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="109"/>
       <c r="B11" s="126"/>
-      <c r="C11" s="126">
+      <c r="C11" s="126" t="e">
         <f>G26-a2_/3</f>
-        <v>3.6373497721673975E-3</v>
-      </c>
-      <c r="D11" s="127">
+        <v>#NUM!</v>
+      </c>
+      <c r="D11" s="127" t="e">
         <f>Z*R_*TK/P</f>
-        <v>33.692373070508751</v>
-      </c>
-      <c r="E11" s="128">
+        <v>#NUM!</v>
+      </c>
+      <c r="E11" s="128" t="e">
         <f>P*EXP(Z-1-LN(Z-B)-A/B/2.8284*LN((Z+2.4142*B)/(Z-0.4142*B)))</f>
-        <v>9.6831072345721192E-2</v>
+        <v>#NUM!</v>
       </c>
       <c r="G11" s="107" t="s">
         <v>47</v>
@@ -3289,7 +3289,7 @@
       </c>
       <c r="J11" s="108">
         <f>a_*P/(R_*TK)^2</f>
-        <v>3.4676390562132502E-2</v>
+        <v>19499.84878609065</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
@@ -3297,29 +3297,29 @@
         <v>49</v>
       </c>
       <c r="B12" s="130"/>
-      <c r="C12" s="131" t="e">
+      <c r="C12" s="131">
         <f>C22-a2_/3</f>
+        <v>7.7796694655751508E-2</v>
+      </c>
+      <c r="D12" s="101">
+        <f>Z*R_*TK/P</f>
+        <v>0.64683843940779562</v>
+      </c>
+      <c r="E12" s="128">
+        <f>P*EXP(Z-1-LN(Z-B)-A/B/2.8284*LN((Z+2.4142*B)/(Z-0.4142*B)))</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="132"/>
+      <c r="H12" s="125" t="e">
+        <f>E9/E11</f>
         <v>#NUM!</v>
-      </c>
-      <c r="D12" s="101" t="e">
-        <f>Z*R_*TK/P</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E12" s="128" t="e">
-        <f>P*EXP(Z-1-LN(Z-B)-A/B/2.8284*LN((Z+2.4142*B)/(Z-0.4142*B)))</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G12" s="132"/>
-      <c r="H12" s="125">
-        <f>E9/E11</f>
-        <v>0.99999991137662325</v>
       </c>
       <c r="I12" s="132" t="s">
         <v>50</v>
       </c>
       <c r="J12" s="125">
         <f>b_*P/R_/TK</f>
-        <v>2.8909022098473451E-3</v>
+        <v>7.7796073899999998E-2</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
@@ -3359,7 +3359,7 @@
       <c r="G16" s="133"/>
       <c r="H16" s="133">
         <f>E18^2/4+D18^3/27</f>
-        <v>-3.8470643277668196E-6</v>
+        <v>274604305059.08209</v>
       </c>
       <c r="I16" s="108"/>
     </row>
@@ -3391,23 +3391,23 @@
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="92">
         <f>-(1-B)</f>
-        <v>-0.99710909779015267</v>
+        <v>-0.92220392610000002</v>
       </c>
       <c r="B18" s="92">
         <f>A-3*B^2-2*B</f>
-        <v>2.8869514195677112E-2</v>
+        <v>19499.675037255507</v>
       </c>
       <c r="C18" s="92">
         <f>-(A*B-B^2-B^3)</f>
-        <v>-9.1864578336599639E-5</v>
+        <v>-1517.0051541327559</v>
       </c>
       <c r="D18" s="92">
         <f>(3*B18-A18^2)/3</f>
-        <v>-0.3025393367696203</v>
+        <v>19499.391550561733</v>
       </c>
       <c r="E18" s="92">
         <f>(2*A18^3-9*A18*B18+27*C18)/27</f>
-        <v>-6.3930019579612474E-2</v>
+        <v>4477.1623754238653</v>
       </c>
       <c r="F18" s="132" t="s">
         <v>63</v>
@@ -3447,17 +3447,17 @@
       <c r="L21" s="134"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="e">
+      <c r="A22" s="92">
         <f>(-$E$18/2+SQRT($H$16))^(1/3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="B22" s="92" t="e">
+        <v>80.506599089196925</v>
+      </c>
+      <c r="B22" s="92">
         <f>(-$E$18/2-SQRT($H$16))^(1/3)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C22" s="92" t="e">
+        <v>-80.736203703241173</v>
+      </c>
+      <c r="C22" s="92">
         <f>A22+B22</f>
-        <v>#NUM!</v>
+        <v>-0.22960461404424848</v>
       </c>
       <c r="D22" s="94"/>
       <c r="F22" s="89" t="s">
@@ -3499,33 +3499,33 @@
       <c r="L25" s="134"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="92">
+      <c r="A26" s="92" t="e">
         <f>2*SQRT(-D18/3)</f>
-        <v>0.63512658766539898</v>
-      </c>
-      <c r="B26" s="92">
+        <v>#NUM!</v>
+      </c>
+      <c r="B26" s="92" t="e">
         <f>3*E18/D18/A26</f>
-        <v>0.99812273536129925</v>
-      </c>
-      <c r="C26" s="92">
+        <v>#NUM!</v>
+      </c>
+      <c r="C26" s="92" t="e">
         <f>ACOS(B26)</f>
-        <v>6.1283803515510105E-2</v>
-      </c>
-      <c r="D26" s="92">
+        <v>#NUM!</v>
+      </c>
+      <c r="D26" s="92" t="e">
         <f>C26/3</f>
-        <v>2.0427934505170036E-2</v>
-      </c>
-      <c r="E26" s="92">
+        <v>#NUM!</v>
+      </c>
+      <c r="E26" s="92" t="e">
         <f>$A$26*COS($D$26)</f>
-        <v>0.63499407294981458</v>
-      </c>
-      <c r="F26" s="92">
+        <v>#NUM!</v>
+      </c>
+      <c r="F26" s="92" t="e">
         <f>$A$26*COS($D$26+4*PI()/3)</f>
-        <v>-0.30626172345859787</v>
-      </c>
-      <c r="G26" s="92">
+        <v>#NUM!</v>
+      </c>
+      <c r="G26" s="92" t="e">
         <f>$A$26*COS($D$26+2*PI()/3)</f>
-        <v>-0.32873234949121682</v>
+        <v>#NUM!</v>
       </c>
       <c r="K26" s="134"/>
       <c r="L26" s="134"/>
